--- a/documentation/Modèle-audit-SEO.xlsx
+++ b/documentation/Modèle-audit-SEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\outils_code\local_repo\VictorDauphin_4_27042021\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E147C2C0-DF8D-45C6-B60E-35F0EB15BD6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BC2ED6-3AE0-4C49-A021-CB3C5BCEBC20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="162">
   <si>
     <t>Catégorie</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>4,2:1</t>
-  </si>
-  <si>
-    <t>insufisants AA et trop petits</t>
   </si>
   <si>
     <t>insuffisant pour AA petit texte et AAA tous textes et trop petits</t>
@@ -585,12 +582,18 @@
   <si>
     <t>apporter les corrections pour avoir des titres et textes pertinents et contenant les mots-clés</t>
   </si>
+  <si>
+    <t>insufisants AAA et trop petits</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -661,8 +664,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -673,6 +681,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -775,7 +789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -864,6 +878,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2155,7 +2187,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G1" s="37" t="s">
         <v>5</v>
@@ -2185,22 +2217,22 @@
         <v>6</v>
       </c>
       <c r="B2" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="D2" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="E2" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="40" t="s">
         <v>80</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" hidden="1" customHeight="1">
@@ -2208,37 +2240,37 @@
         <v>6</v>
       </c>
       <c r="B3" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="E3" s="40" t="s">
         <v>84</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>85</v>
       </c>
       <c r="F3" s="40"/>
       <c r="G3" s="40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>96</v>
-      </c>
       <c r="F4" s="41" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1">
@@ -2246,60 +2278,60 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="52.5" hidden="1" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="40" t="s">
+      <c r="E6" s="41" t="s">
         <v>108</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>109</v>
       </c>
       <c r="F6" s="41"/>
     </row>
     <row r="7" spans="1:27" ht="68.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="40" t="s">
-        <v>111</v>
-      </c>
       <c r="E7" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="40.5" hidden="1" customHeight="1">
@@ -2307,74 +2339,74 @@
         <v>6</v>
       </c>
       <c r="B8" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="41" t="s">
         <v>112</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>113</v>
       </c>
       <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:27" ht="39.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="D9" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>116</v>
-      </c>
       <c r="F9" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="37.5" hidden="1" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="41" t="s">
         <v>118</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>119</v>
       </c>
       <c r="F10" s="41"/>
       <c r="G10" s="40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="34.5" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="E11" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="41" t="s">
-        <v>122</v>
-      </c>
       <c r="F11" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="44.25" hidden="1" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="41" t="s">
         <v>123</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>124</v>
       </c>
       <c r="F12" s="41"/>
     </row>
@@ -2383,183 +2415,183 @@
         <v>6</v>
       </c>
       <c r="B13" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="E13" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="41" t="s">
-        <v>127</v>
-      </c>
       <c r="F13" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="38.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="E14" s="41" t="s">
-        <v>129</v>
-      </c>
       <c r="F14" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="30.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="33" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E16" s="40" t="s">
-        <v>133</v>
-      </c>
       <c r="F16" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="33" hidden="1" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="40" t="s">
         <v>134</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>135</v>
       </c>
       <c r="F17" s="40"/>
     </row>
     <row r="18" spans="1:6" ht="40.5" hidden="1" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="40" t="s">
         <v>136</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>137</v>
       </c>
       <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6" ht="54.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>139</v>
-      </c>
       <c r="E19" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="D20" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="40" t="s">
-        <v>143</v>
-      </c>
       <c r="F20" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="34.5" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B21" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="D21" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="40" t="s">
-        <v>146</v>
-      </c>
       <c r="F21" s="40" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="19.5" hidden="1" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B22" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="D22" s="40" t="s">
         <v>148</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>149</v>
       </c>
       <c r="F22" s="40"/>
     </row>
     <row r="23" spans="1:6" ht="33.75" hidden="1" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="40" t="s">
         <v>150</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>151</v>
       </c>
       <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:6" ht="46.5" hidden="1" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="40" t="s">
         <v>154</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>155</v>
       </c>
       <c r="F24" s="40"/>
     </row>
@@ -3582,7 +3614,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3605,7 +3637,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -3615,7 +3647,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -3631,7 +3663,7 @@
   <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3664,10 +3696,10 @@
     </row>
     <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>9</v>
@@ -3880,7 +3912,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -3951,70 +3983,70 @@
       <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="8"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="45"/>
     </row>
     <row r="26" spans="1:10" ht="30">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="8"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="45"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="8"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="45"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="8"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="45"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="8"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="45"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="6"/>
@@ -4102,7 +4134,7 @@
         <v>25</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -4282,13 +4314,13 @@
     </row>
     <row r="51" spans="1:10" ht="24">
       <c r="A51" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="C51" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
@@ -4372,13 +4404,13 @@
     </row>
     <row r="58" spans="1:10" ht="30">
       <c r="A58" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -4438,13 +4470,13 @@
     </row>
     <row r="63" spans="1:10" ht="30">
       <c r="A63" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -4480,11 +4512,11 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" thickBot="1">
       <c r="A66" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B66" s="15"/>
       <c r="C66" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
@@ -4497,7 +4529,7 @@
     <row r="68" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="69" spans="1:10" ht="15.75">
       <c r="A69" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -4511,10 +4543,10 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>9</v>
@@ -4529,13 +4561,13 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -4607,13 +4639,13 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B77" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="11" t="s">
-        <v>43</v>
-      </c>
       <c r="C77" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
@@ -4661,13 +4693,13 @@
     </row>
     <row r="81" spans="1:10" ht="30">
       <c r="A81" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="C81" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>46</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -4715,13 +4747,13 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>48</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
@@ -4789,43 +4821,43 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:16">
       <c r="A9" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -4842,10 +4874,10 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1">
       <c r="A10" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
@@ -4862,7 +4894,7 @@
     <row r="13" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="14" spans="1:16">
       <c r="A14" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -4882,10 +4914,10 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
@@ -4904,10 +4936,10 @@
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1">
       <c r="A16" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -4927,7 +4959,7 @@
     <row r="17" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="18" spans="1:6">
       <c r="A18" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -4937,7 +4969,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
@@ -5043,7 +5075,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -5115,7 +5147,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -5136,12 +5168,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -5164,15 +5196,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -5184,30 +5216,30 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -5230,7 +5262,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -5251,7 +5283,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -5275,41 +5307,41 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75">
       <c r="A3" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>87</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75">
       <c r="A6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>90</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75">
       <c r="A7" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="35" t="s">
         <v>92</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/Modèle-audit-SEO.xlsx
+++ b/documentation/Modèle-audit-SEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\outils_code\local_repo\VictorDauphin_4_27042021\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BC2ED6-3AE0-4C49-A021-CB3C5BCEBC20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7EAAFD-B5A3-4021-8AAC-E8B4341357BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -445,9 +445,6 @@
     <t>mauvaise structure hiérarchique des titres</t>
   </si>
   <si>
-    <t>Difficultés pour la navigation au clavier et poiur le référencement de la page</t>
-  </si>
-  <si>
     <t>revoir la structure des titres</t>
   </si>
   <si>
@@ -587,6 +584,9 @@
   </si>
   <si>
     <t>v</t>
+  </si>
+  <si>
+    <t>Difficultés pour la navigation au clavier et pour le référencement de la page</t>
   </si>
 </sst>
 </file>
@@ -2154,7 +2154,7 @@
   <dimension ref="A1:AA1048573"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -2187,7 +2187,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G1" s="37" t="s">
         <v>5</v>
@@ -2229,7 +2229,7 @@
         <v>79</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>80</v>
@@ -2270,7 +2270,7 @@
         <v>95</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1">
@@ -2290,7 +2290,7 @@
         <v>103</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>101</v>
@@ -2328,10 +2328,10 @@
         <v>110</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="40.5" hidden="1" customHeight="1">
@@ -2354,16 +2354,16 @@
         <v>113</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="D9" s="40" t="s">
         <v>72</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="37.5" hidden="1" customHeight="1">
@@ -2371,14 +2371,14 @@
         <v>106</v>
       </c>
       <c r="B10" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="41" t="s">
         <v>117</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>118</v>
       </c>
       <c r="F10" s="41"/>
       <c r="G10" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="34.5" customHeight="1">
@@ -2386,16 +2386,16 @@
         <v>106</v>
       </c>
       <c r="B11" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="E11" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="41" t="s">
-        <v>121</v>
-      </c>
       <c r="F11" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="44.25" hidden="1" customHeight="1">
@@ -2403,10 +2403,10 @@
         <v>106</v>
       </c>
       <c r="B12" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="41" t="s">
         <v>122</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>123</v>
       </c>
       <c r="F12" s="41"/>
     </row>
@@ -2415,16 +2415,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="E13" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="E13" s="41" t="s">
-        <v>126</v>
-      </c>
       <c r="F13" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="38.25" customHeight="1">
@@ -2432,16 +2432,16 @@
         <v>98</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="41" t="s">
-        <v>128</v>
-      </c>
       <c r="F14" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="30.75" customHeight="1">
@@ -2449,13 +2449,13 @@
         <v>98</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="33" customHeight="1">
@@ -2463,13 +2463,13 @@
         <v>106</v>
       </c>
       <c r="B16" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="E16" s="40" t="s">
-        <v>132</v>
-      </c>
       <c r="F16" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="33" hidden="1" customHeight="1">
@@ -2477,10 +2477,10 @@
         <v>98</v>
       </c>
       <c r="B17" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="40" t="s">
         <v>133</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>134</v>
       </c>
       <c r="F17" s="40"/>
     </row>
@@ -2489,10 +2489,10 @@
         <v>98</v>
       </c>
       <c r="B18" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="40" t="s">
         <v>135</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>136</v>
       </c>
       <c r="F18" s="40"/>
     </row>
@@ -2501,19 +2501,19 @@
         <v>98</v>
       </c>
       <c r="B19" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>138</v>
-      </c>
       <c r="E19" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
@@ -2521,16 +2521,16 @@
         <v>98</v>
       </c>
       <c r="B20" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="D20" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="40" t="s">
-        <v>142</v>
-      </c>
       <c r="F20" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="34.5" customHeight="1">
@@ -2538,16 +2538,16 @@
         <v>98</v>
       </c>
       <c r="B21" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="D21" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="40" t="s">
-        <v>145</v>
-      </c>
       <c r="F21" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="19.5" hidden="1" customHeight="1">
@@ -2555,13 +2555,13 @@
         <v>98</v>
       </c>
       <c r="B22" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="D22" s="40" t="s">
         <v>147</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>148</v>
       </c>
       <c r="F22" s="40"/>
     </row>
@@ -2570,13 +2570,13 @@
         <v>98</v>
       </c>
       <c r="B23" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="40" t="s">
         <v>149</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>150</v>
       </c>
       <c r="F23" s="40"/>
     </row>
@@ -2585,13 +2585,13 @@
         <v>98</v>
       </c>
       <c r="B24" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="40" t="s">
         <v>153</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>154</v>
       </c>
       <c r="F24" s="40"/>
     </row>
@@ -4134,7 +4134,7 @@
         <v>25</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>

--- a/documentation/Modèle-audit-SEO.xlsx
+++ b/documentation/Modèle-audit-SEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\outils_code\local_repo\VictorDauphin_4_27042021\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7EAAFD-B5A3-4021-8AAC-E8B4341357BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C551C1E-BAEA-4AC1-BAE9-BC1191BF76DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="162">
   <si>
     <t>Catégorie</t>
   </si>
@@ -424,9 +424,6 @@
     <t>SEO &amp; Accessibilité</t>
   </si>
   <si>
-    <t>Tout texte présent sur la paghe doit être visible</t>
-  </si>
-  <si>
     <t>supprimer les textes inutiles et intégrer correctement les textes utiles</t>
   </si>
   <si>
@@ -571,9 +568,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>remplacer les images par des titres et les balises adéquates</t>
-  </si>
-  <si>
     <t>Google analytics &amp; Google search console</t>
   </si>
   <si>
@@ -587,6 +581,12 @@
   </si>
   <si>
     <t>Difficultés pour la navigation au clavier et pour le référencement de la page</t>
+  </si>
+  <si>
+    <t>Tout texte présent sur la page doit être visible</t>
+  </si>
+  <si>
+    <t>remplacer les images par des titres et les balises adéquates. Configurer les balises alt des images afin de faciliter la navigatio ndes lecteurs d'ecran</t>
   </si>
 </sst>
 </file>
@@ -927,7 +927,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>476081</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>18988</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -971,8 +971,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>157268</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>357293</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2154,7 +2154,7 @@
   <dimension ref="A1:AA1048573"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -2187,7 +2187,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G1" s="37" t="s">
         <v>5</v>
@@ -2229,7 +2229,7 @@
         <v>79</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>80</v>
@@ -2270,7 +2270,7 @@
         <v>95</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1">
@@ -2290,13 +2290,13 @@
         <v>103</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="52.5" hidden="1" customHeight="1">
+    <row r="6" spans="1:27" ht="52.5" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>106</v>
       </c>
@@ -2307,12 +2307,14 @@
         <v>105</v>
       </c>
       <c r="D6" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="41"/>
+      <c r="F6" s="41" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="7" spans="1:27" ht="68.25" customHeight="1">
       <c r="A7" s="2" t="s">
@@ -2322,16 +2324,16 @@
         <v>64</v>
       </c>
       <c r="C7" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="40" t="s">
-        <v>110</v>
-      </c>
       <c r="E7" s="41" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="40.5" hidden="1" customHeight="1">
@@ -2339,10 +2341,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="41" t="s">
         <v>111</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>112</v>
       </c>
       <c r="F8" s="41"/>
     </row>
@@ -2351,19 +2353,19 @@
         <v>106</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D9" s="40" t="s">
         <v>72</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="37.5" hidden="1" customHeight="1">
@@ -2371,14 +2373,14 @@
         <v>106</v>
       </c>
       <c r="B10" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="41" t="s">
         <v>116</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>117</v>
       </c>
       <c r="F10" s="41"/>
       <c r="G10" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="34.5" customHeight="1">
@@ -2386,16 +2388,16 @@
         <v>106</v>
       </c>
       <c r="B11" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="E11" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="41" t="s">
-        <v>120</v>
-      </c>
       <c r="F11" s="41" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="44.25" hidden="1" customHeight="1">
@@ -2403,10 +2405,10 @@
         <v>106</v>
       </c>
       <c r="B12" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="41" t="s">
         <v>121</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>122</v>
       </c>
       <c r="F12" s="41"/>
     </row>
@@ -2415,16 +2417,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="E13" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="41" t="s">
-        <v>125</v>
-      </c>
       <c r="F13" s="41" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="38.25" customHeight="1">
@@ -2432,16 +2434,16 @@
         <v>98</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C14" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="E14" s="41" t="s">
-        <v>127</v>
-      </c>
       <c r="F14" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="30.75" customHeight="1">
@@ -2449,13 +2451,13 @@
         <v>98</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="33" customHeight="1">
@@ -2463,13 +2465,13 @@
         <v>106</v>
       </c>
       <c r="B16" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="40" t="s">
-        <v>131</v>
-      </c>
       <c r="F16" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="33" hidden="1" customHeight="1">
@@ -2477,10 +2479,10 @@
         <v>98</v>
       </c>
       <c r="B17" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="40" t="s">
         <v>132</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>133</v>
       </c>
       <c r="F17" s="40"/>
     </row>
@@ -2489,10 +2491,10 @@
         <v>98</v>
       </c>
       <c r="B18" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="40" t="s">
         <v>134</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>135</v>
       </c>
       <c r="F18" s="40"/>
     </row>
@@ -2501,19 +2503,19 @@
         <v>98</v>
       </c>
       <c r="B19" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>137</v>
-      </c>
       <c r="E19" s="40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
@@ -2521,16 +2523,16 @@
         <v>98</v>
       </c>
       <c r="B20" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="D20" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="40" t="s">
-        <v>141</v>
-      </c>
       <c r="F20" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="34.5" customHeight="1">
@@ -2538,16 +2540,16 @@
         <v>98</v>
       </c>
       <c r="B21" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="D21" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="D21" s="40" t="s">
-        <v>144</v>
-      </c>
       <c r="F21" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="19.5" hidden="1" customHeight="1">
@@ -2555,13 +2557,13 @@
         <v>98</v>
       </c>
       <c r="B22" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="D22" s="40" t="s">
         <v>146</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>147</v>
       </c>
       <c r="F22" s="40"/>
     </row>
@@ -2570,13 +2572,13 @@
         <v>98</v>
       </c>
       <c r="B23" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="40" t="s">
         <v>148</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>149</v>
       </c>
       <c r="F23" s="40"/>
     </row>
@@ -2585,13 +2587,13 @@
         <v>98</v>
       </c>
       <c r="B24" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="40" t="s">
         <v>152</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>153</v>
       </c>
       <c r="F24" s="40"/>
     </row>
@@ -4134,7 +4136,7 @@
         <v>25</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>

--- a/documentation/Modèle-audit-SEO.xlsx
+++ b/documentation/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\outils_code\local_repo\VictorDauphin_4_27042021\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C551C1E-BAEA-4AC1-BAE9-BC1191BF76DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBE14E2-C95C-4084-914E-EBBF9B705982}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2154,7 +2154,7 @@
   <dimension ref="A1:AA1048573"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -2313,7 +2313,7 @@
         <v>107</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="68.25" customHeight="1">
@@ -2457,7 +2457,7 @@
         <v>127</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="33" customHeight="1">
@@ -2471,7 +2471,7 @@
         <v>130</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="33" hidden="1" customHeight="1">
@@ -2532,7 +2532,7 @@
         <v>140</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="34.5" customHeight="1">

--- a/documentation/Modèle-audit-SEO.xlsx
+++ b/documentation/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\outils_code\local_repo\VictorDauphin_4_27042021\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBE14E2-C95C-4084-914E-EBBF9B705982}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855B839A-9E3A-4E4A-B139-38D5726BA60F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="161">
   <si>
     <t>Catégorie</t>
   </si>
@@ -499,9 +499,6 @@
     <t>Fichiers robots.txt inexistant</t>
   </si>
   <si>
-    <t>Créer robts.txt</t>
-  </si>
-  <si>
     <t>sitemap inexistant</t>
   </si>
   <si>
@@ -565,9 +562,6 @@
     <t>Priorité</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Google analytics &amp; Google search console</t>
   </si>
   <si>
@@ -587,6 +581,9 @@
   </si>
   <si>
     <t>remplacer les images par des titres et les balises adéquates. Configurer les balises alt des images afin de faciliter la navigatio ndes lecteurs d'ecran</t>
+  </si>
+  <si>
+    <t>Créer robots.txt</t>
   </si>
 </sst>
 </file>
@@ -927,8 +924,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>476081</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>18988</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -971,8 +968,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>357293</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>90592</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1015,8 +1012,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1352381</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>514248</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1059,8 +1056,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>622451</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>60477</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1103,8 +1100,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>625316</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>149066</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2153,8 +2150,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AA1048573"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -2187,7 +2184,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G1" s="37" t="s">
         <v>5</v>
@@ -2212,7 +2209,7 @@
       <c r="Z1" s="38"/>
       <c r="AA1" s="38"/>
     </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1">
+    <row r="2" spans="1:27" ht="15.75" hidden="1" customHeight="1">
       <c r="A2" s="39" t="s">
         <v>6</v>
       </c>
@@ -2229,7 +2226,7 @@
         <v>79</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>80</v>
@@ -2253,7 +2250,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1">
+    <row r="4" spans="1:27" ht="15.75" hidden="1" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>106</v>
       </c>
@@ -2270,10 +2267,10 @@
         <v>95</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" hidden="1" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2290,13 +2287,13 @@
         <v>103</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="52.5" customHeight="1">
+    <row r="6" spans="1:27" ht="52.5" hidden="1" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>106</v>
       </c>
@@ -2307,16 +2304,16 @@
         <v>105</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E6" s="41" t="s">
         <v>107</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="68.25" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="68.25" hidden="1" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>106</v>
       </c>
@@ -2330,10 +2327,10 @@
         <v>109</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="40.5" hidden="1" customHeight="1">
@@ -2348,7 +2345,7 @@
       </c>
       <c r="F8" s="41"/>
     </row>
-    <row r="9" spans="1:27" ht="39.75" customHeight="1">
+    <row r="9" spans="1:27" ht="39.75" hidden="1" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>106</v>
       </c>
@@ -2356,7 +2353,7 @@
         <v>112</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D9" s="40" t="s">
         <v>72</v>
@@ -2365,7 +2362,7 @@
         <v>113</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="37.5" hidden="1" customHeight="1">
@@ -2378,12 +2375,14 @@
       <c r="E10" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="41"/>
+      <c r="F10" s="41" t="s">
+        <v>156</v>
+      </c>
       <c r="G10" s="40" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="34.5" customHeight="1">
+    <row r="11" spans="1:27" ht="34.5" hidden="1" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>106</v>
       </c>
@@ -2397,7 +2396,7 @@
         <v>119</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="44.25" hidden="1" customHeight="1">
@@ -2412,7 +2411,7 @@
       </c>
       <c r="F12" s="41"/>
     </row>
-    <row r="13" spans="1:27" ht="19.5" customHeight="1">
+    <row r="13" spans="1:27" ht="19.5" hidden="1" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -2426,15 +2425,15 @@
         <v>124</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="38.25" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="38.25" hidden="1" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>125</v>
@@ -2443,10 +2442,10 @@
         <v>126</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="30.75" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="30.75" hidden="1" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>98</v>
       </c>
@@ -2457,10 +2456,10 @@
         <v>127</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="33" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="33" hidden="1" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>106</v>
       </c>
@@ -2471,7 +2470,7 @@
         <v>130</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="33" hidden="1" customHeight="1">
@@ -2482,7 +2481,7 @@
         <v>131</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="F17" s="40"/>
     </row>
@@ -2491,10 +2490,10 @@
         <v>98</v>
       </c>
       <c r="B18" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="40" t="s">
         <v>133</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>134</v>
       </c>
       <c r="F18" s="40"/>
     </row>
@@ -2503,53 +2502,53 @@
         <v>98</v>
       </c>
       <c r="B19" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>136</v>
-      </c>
       <c r="E19" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="F19" s="40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1">
+    </row>
+    <row r="20" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B20" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="D20" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="40" t="s">
-        <v>140</v>
-      </c>
       <c r="F20" s="40" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="34.5" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="34.5" hidden="1" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B21" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="D21" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="D21" s="40" t="s">
-        <v>143</v>
-      </c>
       <c r="F21" s="40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="19.5" hidden="1" customHeight="1">
@@ -2557,13 +2556,13 @@
         <v>98</v>
       </c>
       <c r="B22" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="D22" s="40" t="s">
         <v>145</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>146</v>
       </c>
       <c r="F22" s="40"/>
     </row>
@@ -2572,13 +2571,13 @@
         <v>98</v>
       </c>
       <c r="B23" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="40" t="s">
         <v>147</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>148</v>
       </c>
       <c r="F23" s="40"/>
     </row>
@@ -2587,13 +2586,13 @@
         <v>98</v>
       </c>
       <c r="B24" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="40" t="s">
         <v>151</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>152</v>
       </c>
       <c r="F24" s="40"/>
     </row>
@@ -3578,9 +3577,9 @@
   </sheetData>
   <autoFilter ref="A1:AA24" xr:uid="{21157C4E-4207-42C6-9E6E-E0E6066941BB}">
     <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+      <filters>
+        <filter val="x"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -3664,7 +3663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5909AC17-03F6-446F-A4C3-CF5CED53F53A}">
   <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
@@ -4136,7 +4135,7 @@
         <v>25</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>

--- a/documentation/Modèle-audit-SEO.xlsx
+++ b/documentation/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\outils_code\local_repo\VictorDauphin_4_27042021\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855B839A-9E3A-4E4A-B139-38D5726BA60F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9C3679-7E7A-4CE2-B93B-FF8AD320018B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="164">
   <si>
     <t>Catégorie</t>
   </si>
@@ -584,6 +584,15 @@
   </si>
   <si>
     <t>Créer robots.txt</t>
+  </si>
+  <si>
+    <t>ouverture de galleries d'images</t>
+  </si>
+  <si>
+    <t>les galleries d'images sont difficiles à fermer et n'apportent rien à la fonctionnalité du site</t>
+  </si>
+  <si>
+    <t>supprimer l'ouverture de galleries</t>
   </si>
 </sst>
 </file>
@@ -924,8 +933,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>476081</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>485775</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -968,8 +977,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>90592</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>357293</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1012,8 +1021,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1352381</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114199</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>514248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1056,8 +1065,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>60477</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>622451</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1100,8 +1109,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>149066</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>625316</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2150,8 +2159,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AA1048573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -2209,7 +2218,7 @@
       <c r="Z1" s="38"/>
       <c r="AA1" s="38"/>
     </row>
-    <row r="2" spans="1:27" ht="15.75" hidden="1" customHeight="1">
+    <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="39" t="s">
         <v>6</v>
       </c>
@@ -2250,7 +2259,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15.75" hidden="1" customHeight="1">
+    <row r="4" spans="1:27" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>106</v>
       </c>
@@ -2270,7 +2279,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15.75" hidden="1" customHeight="1">
+    <row r="5" spans="1:27" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2293,7 +2302,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="52.5" hidden="1" customHeight="1">
+    <row r="6" spans="1:27" ht="52.5" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>106</v>
       </c>
@@ -2313,7 +2322,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="68.25" hidden="1" customHeight="1">
+    <row r="7" spans="1:27" ht="68.25" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>106</v>
       </c>
@@ -2345,7 +2354,7 @@
       </c>
       <c r="F8" s="41"/>
     </row>
-    <row r="9" spans="1:27" ht="39.75" hidden="1" customHeight="1">
+    <row r="9" spans="1:27" ht="39.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>106</v>
       </c>
@@ -2365,7 +2374,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="37.5" hidden="1" customHeight="1">
+    <row r="10" spans="1:27" ht="37.5" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>106</v>
       </c>
@@ -2382,7 +2391,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="34.5" hidden="1" customHeight="1">
+    <row r="11" spans="1:27" ht="34.5" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>106</v>
       </c>
@@ -2411,7 +2420,7 @@
       </c>
       <c r="F12" s="41"/>
     </row>
-    <row r="13" spans="1:27" ht="19.5" hidden="1" customHeight="1">
+    <row r="13" spans="1:27" ht="19.5" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -2428,7 +2437,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="38.25" hidden="1" customHeight="1">
+    <row r="14" spans="1:27" ht="38.25" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>98</v>
       </c>
@@ -2445,7 +2454,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="30.75" hidden="1" customHeight="1">
+    <row r="15" spans="1:27" ht="30.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>98</v>
       </c>
@@ -2459,7 +2468,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="33" hidden="1" customHeight="1">
+    <row r="16" spans="1:27" ht="33" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>106</v>
       </c>
@@ -2517,7 +2526,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>98</v>
       </c>
@@ -2534,7 +2543,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="34.5" hidden="1" customHeight="1">
+    <row r="21" spans="1:6" ht="34.5" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>98</v>
       </c>
@@ -2596,7 +2605,23 @@
       </c>
       <c r="F24" s="40"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:6" ht="55.5" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="D27" s="7"/>
@@ -3577,9 +3602,9 @@
   </sheetData>
   <autoFilter ref="A1:AA24" xr:uid="{21157C4E-4207-42C6-9E6E-E0E6066941BB}">
     <filterColumn colId="5">
-      <filters>
-        <filter val="x"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/documentation/Modèle-audit-SEO.xlsx
+++ b/documentation/Modèle-audit-SEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\outils_code\local_repo\VictorDauphin_4_27042021\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9C3679-7E7A-4CE2-B93B-FF8AD320018B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CA77ED-1B94-4CE8-9ADF-499D699F3781}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$AA$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$AA$25</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="194">
   <si>
     <t>Catégorie</t>
   </si>
@@ -197,9 +197,6 @@
   </si>
   <si>
     <t>« cartes » ) :</t>
-  </si>
-  <si>
-    <t>Il FAUT utiliser l’attribut hidden ou les propriétés de style visibility ou</t>
   </si>
   <si>
     <t>display ;</t>
@@ -593,6 +590,99 @@
   </si>
   <si>
     <t>supprimer l'ouverture de galleries</t>
+  </si>
+  <si>
+    <t>Corrections page 1</t>
+  </si>
+  <si>
+    <t>Titre image</t>
+  </si>
+  <si>
+    <t>5,4:1</t>
+  </si>
+  <si>
+    <t>Bouton contact</t>
+  </si>
+  <si>
+    <t>5,9:1</t>
+  </si>
+  <si>
+    <t>Conforme AA pour texte normal</t>
+  </si>
+  <si>
+    <t>titre</t>
+  </si>
+  <si>
+    <t>conforme AAA pour grands texts</t>
+  </si>
+  <si>
+    <t>conforme AAA pour grands textes</t>
+  </si>
+  <si>
+    <t>texte</t>
+  </si>
+  <si>
+    <t>11,1:</t>
+  </si>
+  <si>
+    <t>conforme AAA</t>
+  </si>
+  <si>
+    <t>encart titre</t>
+  </si>
+  <si>
+    <t>encart2</t>
+  </si>
+  <si>
+    <t>cartes réalisations</t>
+  </si>
+  <si>
+    <t>l'agrandissement du texte a suffit à améliorer le contraste à un niveau suffisant</t>
+  </si>
+  <si>
+    <t>encart3</t>
+  </si>
+  <si>
+    <t>4,7:1</t>
+  </si>
+  <si>
+    <t>conforme AAA grands textes</t>
+  </si>
+  <si>
+    <t>footer social</t>
+  </si>
+  <si>
+    <t>conforle composant graphiques</t>
+  </si>
+  <si>
+    <t>4,1:1</t>
+  </si>
+  <si>
+    <t>corrections page 2</t>
+  </si>
+  <si>
+    <t>formulaire</t>
+  </si>
+  <si>
+    <t>Bouton Envoyer</t>
+  </si>
+  <si>
+    <t>coordonnées</t>
+  </si>
+  <si>
+    <t>5.9:1</t>
+  </si>
+  <si>
+    <t>Pour rendre une partie du texte invisible, il FAUT utiliser l’attribut hidden ou les propriétés de style visibility ou</t>
+  </si>
+  <si>
+    <t>nettoyer l'indentation et la profondeure du code HTML</t>
+  </si>
+  <si>
+    <t>Reprendre le code HTML, simplifier les classes et utiliser la notation BEM</t>
+  </si>
+  <si>
+    <t>hors champs d'intervention et demande un travail supérieur au temps allouable</t>
   </si>
 </sst>
 </file>
@@ -676,7 +766,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -687,12 +777,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF7030A0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -863,7 +947,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -889,19 +972,22 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -933,7 +1019,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>476081</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1021,8 +1107,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1352381</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>514248</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1065,8 +1151,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>622451</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>203351</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1109,8 +1195,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>625316</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>206216</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1676,6 +1762,270 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>644410</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Image 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CFA3860-BBCB-4C93-835E-FF1E079FAF6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7524750" y="18335625"/>
+          <a:ext cx="4254385" cy="2028825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>137161</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Image 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4AE0427-25B8-44EB-A2C5-CDCC3C813B6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200900" y="20583526"/>
+          <a:ext cx="4267200" cy="2804160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2952750</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>97874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Image 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF6053F9-ED9E-4374-9C48-5C6EDC72FD98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6819900" y="23431500"/>
+          <a:ext cx="1857375" cy="2583899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2628900</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>19815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Image 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D0A3C1-BB4C-4662-848B-44E765629115}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6496050" y="26050875"/>
+          <a:ext cx="3629025" cy="648465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3114675</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>183078</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Image 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{633C4A3E-BCA0-4B8C-8D5E-99CE7D577D1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6981825" y="26689050"/>
+          <a:ext cx="3019425" cy="745053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3219450</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>913780</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>113890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Image 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B83B51-A19C-4594-9579-3996CC7AC49C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7086600" y="27908250"/>
+          <a:ext cx="4961905" cy="3276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1691,7 +2041,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>69202</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2156,11 +2506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AA1048573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -2177,106 +2526,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="G1" s="37" t="s">
+      <c r="F1" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="E2" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" hidden="1" customHeight="1">
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="E3" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40" t="s">
-        <v>81</v>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>156</v>
+      <c r="F4" s="40" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1">
@@ -2284,345 +2633,358 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="52.5" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="40" t="s">
+      <c r="F6" s="40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="85.5" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="B7" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="68.25" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="40.5" hidden="1" customHeight="1">
+      <c r="F7" s="40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="40.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" s="41"/>
+      <c r="F8" s="40"/>
     </row>
     <row r="9" spans="1:27" ht="39.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>156</v>
+      <c r="F9" s="40" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="37.5" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>114</v>
+      <c r="F10" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="34.5" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="E11" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="F11" s="40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="44.25" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="41" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="44.25" hidden="1" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="40" t="s">
+      <c r="E12" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="E12" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" s="41"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:27" ht="19.5" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="E13" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>156</v>
+      <c r="F13" s="40" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="38.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="E14" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>156</v>
+      <c r="F14" s="40" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="30.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="40" t="s">
-        <v>156</v>
+      <c r="E15" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="33" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="F16" s="39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="33" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="40" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="33" hidden="1" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="40" t="s">
+      <c r="E17" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="39"/>
+    </row>
+    <row r="18" spans="1:6" ht="40.5" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="F17" s="40"/>
-    </row>
-    <row r="18" spans="1:6" ht="40.5" hidden="1" customHeight="1">
-      <c r="A18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="40" t="s">
+      <c r="E18" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="E18" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="F18" s="40"/>
+      <c r="F18" s="39"/>
     </row>
     <row r="19" spans="1:6" ht="54.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>156</v>
+      <c r="E19" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="D20" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="D20" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>156</v>
+      <c r="F20" s="39" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="34.5" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="D21" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="F21" s="39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="40" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="19.5" hidden="1" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="40" t="s">
+      <c r="C22" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="D22" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="F22" s="39"/>
+    </row>
+    <row r="23" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="40"/>
-    </row>
-    <row r="23" spans="1:6" ht="33.75" hidden="1" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="40" t="s">
+      <c r="C23" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="F23" s="39"/>
+    </row>
+    <row r="24" spans="1:6" ht="46.5" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="E23" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="F23" s="40"/>
-    </row>
-    <row r="24" spans="1:6" ht="46.5" hidden="1" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" s="40" t="s">
+      <c r="E24" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="C24" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="F24" s="40"/>
+      <c r="F24" s="39"/>
     </row>
     <row r="25" spans="1:6" ht="55.5" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="54.75" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>193</v>
+      </c>
+    </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="D27" s="7"/>
     </row>
@@ -3597,16 +3959,10 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="1048573" spans="3:3" ht="15" customHeight="1">
-      <c r="C1048573" s="40"/>
+      <c r="C1048573" s="39"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA24" xr:uid="{21157C4E-4207-42C6-9E6E-E0E6066941BB}">
-    <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AA25" xr:uid="{21157C4E-4207-42C6-9E6E-E0E6066941BB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3640,7 +3996,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3663,7 +4019,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -3673,7 +4029,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -3686,10 +4042,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5909AC17-03F6-446F-A4C3-CF5CED53F53A}">
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:J156"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView topLeftCell="A124" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N148" sqref="N148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4009,70 +4365,70 @@
       <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="45"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="44"/>
     </row>
     <row r="26" spans="1:10" ht="30">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="45"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="44"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="45"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="44"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="45"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="44"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="45"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="44"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="6"/>
@@ -4160,7 +4516,7 @@
         <v>25</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -4825,6 +5181,782 @@
       <c r="I88" s="15"/>
       <c r="J88" s="17"/>
     </row>
+    <row r="91" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="92" spans="1:10" ht="15.75">
+      <c r="A92" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="5"/>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="8"/>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="8"/>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="6"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="8"/>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="8"/>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="6"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="8"/>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="6"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="8"/>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="6"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="8"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="6"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="8"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="6"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="8"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="6"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="8"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="6"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="8"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="6"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="8"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="6"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="8"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="6"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="8"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="6"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="8"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="8"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="8"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="6"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="8"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="8"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="6"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="8"/>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="6"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="8"/>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="6"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="8"/>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="6"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="8"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="6"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="8"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="6"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="8"/>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="6"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="8"/>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="8"/>
+    </row>
+    <row r="120" spans="1:9" ht="45">
+      <c r="A120" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="8"/>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="6"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="8"/>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="6"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="8"/>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="6"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="8"/>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="6"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="8"/>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="6"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="8"/>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="6"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="8"/>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="6"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="8"/>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="6"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="8"/>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="6"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="8"/>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="8"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="6"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="8"/>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="6"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="8"/>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="8"/>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="6"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="8"/>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="6"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="8"/>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="6"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="8"/>
+    </row>
+    <row r="137" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A137" s="19"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="17"/>
+    </row>
+    <row r="138" spans="1:9" ht="15.75" thickBot="1"/>
+    <row r="139" spans="1:9">
+      <c r="A139" s="47"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="5"/>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="8"/>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="6"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="7"/>
+      <c r="I141" s="8"/>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B142" s="10">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="8"/>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="6"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="8"/>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="7"/>
+      <c r="I144" s="8"/>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="6"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="8"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B146" s="10">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="8"/>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="6"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="8"/>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="6"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="8"/>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="6"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="8"/>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="6"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="8"/>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="6"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="8"/>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="6"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="8"/>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="6"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="8"/>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="6"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="8"/>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="6"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="8"/>
+    </row>
+    <row r="156" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A156" s="19"/>
+      <c r="B156" s="15"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="15"/>
+      <c r="I156" s="17"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4836,13 +5968,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566DB50D-AB4C-49B0-8BDE-B0EC5C03FC46}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="65.21875" customWidth="1"/>
+    <col min="1" max="1" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4861,29 +5993,29 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" t="s">
-        <v>51</v>
+      <c r="A4" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:16">
       <c r="A9" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -4900,10 +6032,10 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1">
       <c r="A10" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
@@ -4920,7 +6052,7 @@
     <row r="13" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="14" spans="1:16">
       <c r="A14" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -4940,10 +6072,10 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
@@ -4962,10 +6094,10 @@
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1">
       <c r="A16" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -4985,7 +6117,7 @@
     <row r="17" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="18" spans="1:6">
       <c r="A18" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -4993,9 +6125,9 @@
       <c r="E18" s="21"/>
       <c r="F18" s="22"/>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="31" t="s">
-        <v>63</v>
+    <row r="19" spans="1:6" ht="30">
+      <c r="A19" s="45" t="s">
+        <v>62</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
@@ -5004,7 +6136,7 @@
       <c r="F19" s="29"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="32"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
@@ -5012,7 +6144,7 @@
       <c r="F20" s="29"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="32"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
@@ -5020,7 +6152,7 @@
       <c r="F21" s="29"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="32"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
@@ -5028,7 +6160,7 @@
       <c r="F22" s="29"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="32"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
@@ -5036,7 +6168,7 @@
       <c r="F23" s="29"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="32"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
@@ -5044,7 +6176,7 @@
       <c r="F24" s="29"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="32"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
@@ -5052,7 +6184,7 @@
       <c r="F25" s="29"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="32"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
@@ -5060,7 +6192,7 @@
       <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="32"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
@@ -5068,7 +6200,7 @@
       <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="32"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
@@ -5076,7 +6208,7 @@
       <c r="F28" s="29"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="32"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
@@ -5084,7 +6216,7 @@
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="32"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
@@ -5092,7 +6224,7 @@
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="32"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
@@ -5101,7 +6233,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -5110,7 +6242,7 @@
       <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="32"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
@@ -5118,7 +6250,7 @@
       <c r="F33" s="29"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="32"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
@@ -5126,7 +6258,7 @@
       <c r="F34" s="29"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="32"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
@@ -5134,7 +6266,7 @@
       <c r="F35" s="29"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="32"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
@@ -5142,7 +6274,7 @@
       <c r="F36" s="29"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="32"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
@@ -5150,7 +6282,7 @@
       <c r="F37" s="29"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A38" s="33"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
@@ -5159,7 +6291,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5167,13 +6300,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165CD4C0-5E12-427C-A5CB-60FD25C6B8B4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -5194,12 +6329,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -5222,15 +6357,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -5242,30 +6377,30 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -5288,7 +6423,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -5309,7 +6444,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -5333,20 +6468,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3" s="33" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75">
-      <c r="A3" s="34" t="s">
+      <c r="B3" s="34" t="s">
         <v>86</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5356,18 +6491,18 @@
     </row>
     <row r="6" spans="1:2" ht="15.75">
       <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="35" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7" s="35" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75">
-      <c r="A7" s="36" t="s">
+      <c r="B7" s="34" t="s">
         <v>91</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/Modèle-audit-SEO.xlsx
+++ b/documentation/Modèle-audit-SEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\outils_code\local_repo\VictorDauphin_4_27042021\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CA77ED-1B94-4CE8-9ADF-499D699F3781}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6B02CE-026D-4B06-82BE-D76921B99C20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="5" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$AA$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$AA$27</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="196">
   <si>
     <t>Catégorie</t>
   </si>
@@ -683,6 +683,12 @@
   </si>
   <si>
     <t>hors champs d'intervention et demande un travail supérieur au temps allouable</t>
+  </si>
+  <si>
+    <t>la page doit contenir un élément main</t>
+  </si>
+  <si>
+    <t>Mettre en place une élément main par pages</t>
   </si>
 </sst>
 </file>
@@ -1011,16 +1017,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2576513</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>476081</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>202237</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>164306</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1043,8 +1049,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18507075" y="323850"/>
-          <a:ext cx="1352381" cy="495238"/>
+          <a:off x="20257294" y="278606"/>
+          <a:ext cx="1352381" cy="492919"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1055,16 +1061,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>297656</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>157164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>88106</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>357293</xdr:rowOff>
+      <xdr:rowOff>476356</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1087,8 +1093,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18478500" y="638176"/>
-          <a:ext cx="5219700" cy="1385992"/>
+          <a:off x="23514844" y="561977"/>
+          <a:ext cx="5219700" cy="1390754"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1108,7 +1114,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>1352381</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>95148</xdr:rowOff>
+      <xdr:rowOff>97529</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1144,15 +1150,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1457325</xdr:colOff>
+      <xdr:colOff>1433512</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>97630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>147637</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>203351</xdr:rowOff>
+      <xdr:rowOff>217638</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1175,8 +1181,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17202150" y="6153149"/>
-          <a:ext cx="1533525" cy="955827"/>
+          <a:off x="19114293" y="5205411"/>
+          <a:ext cx="1535907" cy="953446"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1196,7 +1202,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>476251</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>206216</xdr:rowOff>
+      <xdr:rowOff>208597</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2508,8 +2514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1048573"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -2985,8 +2991,16 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1">
-      <c r="D27" s="7"/>
+    <row r="27" spans="1:6" ht="42.75" customHeight="1">
+      <c r="A27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="29" spans="1:6" ht="15.75" customHeight="1"/>
@@ -3962,7 +3976,7 @@
       <c r="C1048573" s="39"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA25" xr:uid="{21157C4E-4207-42C6-9E6E-E0E6066941BB}"/>
+  <autoFilter ref="A1:AA27" xr:uid="{21157C4E-4207-42C6-9E6E-E0E6066941BB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4044,7 +4058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5909AC17-03F6-446F-A4C3-CF5CED53F53A}">
   <dimension ref="A1:J156"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="N148" sqref="N148"/>
     </sheetView>
   </sheetViews>
@@ -6300,7 +6314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165CD4C0-5E12-427C-A5CB-60FD25C6B8B4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -6322,7 +6336,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6347,7 +6361,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
